--- a/ЕГЭ/Варианты/2024/Вариант 3/Задание 22/22.xlsx
+++ b/ЕГЭ/Варианты/2024/Вариант 3/Задание 22/22.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -24,17 +24,11 @@
   <si>
     <t>ID процесса (ов) A</t>
   </si>
-  <si>
-    <t>5; 7</t>
-  </si>
-  <si>
-    <t>1; 4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +89,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -111,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -223,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,17 +394,17 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -422,7 +416,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -432,10 +426,20 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>MAX(VLOOKUP(C2, A:E, 5, 0), VLOOKUP(D2, A:E, 5, 0)) + B2</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>MAX(E2:E13)</f>
+        <v>23</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -445,10 +449,16 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">MAX(VLOOKUP(C3, A:E, 5, 0), VLOOKUP(D3, A:E, 5, 0)) + B3</f>
+        <v>3</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -458,8 +468,15 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -469,8 +486,15 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -480,19 +504,33 @@
       <c r="C6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -502,8 +540,15 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -513,19 +558,33 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -535,8 +594,15 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -546,8 +612,15 @@
       <c r="C12" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -557,10 +630,21 @@
       <c r="C13" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
   </sheetData>
